--- a/11月份spring系列书签.xlsx
+++ b/11月份spring系列书签.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeMeHero\Desktop\studywork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeMeHero\Desktop\studyByWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2147F9-D7C8-4E52-AB0A-AEDE47AF93E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50BD36-B2AF-41D4-B6F1-37F41A34BCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,9 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -648,7 +650,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A6" sqref="A6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -730,6 +732,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
